--- a/biology/Médecine/Lymphome_B_primitif_du_médiastin/Lymphome_B_primitif_du_médiastin.xlsx
+++ b/biology/Médecine/Lymphome_B_primitif_du_médiastin/Lymphome_B_primitif_du_médiastin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymphome_B_primitif_du_m%C3%A9diastin</t>
+          <t>Lymphome_B_primitif_du_médiastin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le lymphome B primitif du médiastin (type thymique) est un type de lymphome B survenant dans le médiastin antérieur, d'origine thymique.
 Il représente environ 7 % des lymphomes B diffus à grandes cellules (DLBCL) et est présumé originaire de lymphocytes B thymiques. Il s'observe surtout chez les sujets jeunes, avec un âge moyen d’environ 33 ans, un rapport femme/homme de 1 à 2,5. Il n'est pas associé au virus d'Epstein-Barr (EBV).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lymphome_B_primitif_du_m%C3%A9diastin</t>
+          <t>Lymphome_B_primitif_du_médiastin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Immunohistochimie
-Marqueurs B positifs : CD19, CD20, CD22, CD79a.
+          <t>Immunohistochimie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Marqueurs B positifs : CD19, CD20, CD22, CD79a.
 Marqueurs T négatifs: CD3-, CD5-
 CD10+/-, CD21-, CD25-
 CD30+/- (faible avec les méthodes standard).
 CD15-
 Bcl-2+ (30%)
-BCL6+
-Diagnostic différentiel
-Thymome : espaces repérés vasculaires, différenciation médullaire, corps de Hassal.
+BCL6+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lymphome_B_primitif_du_médiastin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lymphome_B_primitif_du_m%C3%A9diastin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie pathologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diagnostic différentiel</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thymome : espaces repérés vasculaires, différenciation médullaire, corps de Hassal.
 Carcinome thymique : le CD45 (antigène leucocytaire commun ou CLA) est négatif dans les grandes cellules, y compris dans les formes lymphoépithéliales.
 Séminome
 Lymphome de Hodgkin
